--- a/Output/实地调研单位.xlsx
+++ b/Output/实地调研单位.xlsx
@@ -386,7 +386,7 @@
         <v>已提交</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -394,7 +394,7 @@
         <v>已暂存</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>未暂存</v>
       </c>
       <c r="B3">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4">
@@ -10227,7 +10227,7 @@
         <v>47778522</v>
       </c>
       <c r="H381" t="str">
-        <v>未暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="382">
@@ -13711,7 +13711,7 @@
         <v>32682494</v>
       </c>
       <c r="H515" t="str">
-        <v>未暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="516">
@@ -15895,7 +15895,7 @@
         <v>30919332</v>
       </c>
       <c r="H599" t="str">
-        <v>已暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="600">
@@ -16389,7 +16389,7 @@
         <v>77206108</v>
       </c>
       <c r="H618" t="str">
-        <v>未暂存</v>
+        <v>已暂存</v>
       </c>
     </row>
     <row r="619">
@@ -18365,7 +18365,7 @@
         <v>92014912</v>
       </c>
       <c r="H694" t="str">
-        <v>未暂存</v>
+        <v>已暂存</v>
       </c>
     </row>
     <row r="695">
@@ -19535,7 +19535,7 @@
         <v>3332634</v>
       </c>
       <c r="H739" t="str">
-        <v>已暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="740">
@@ -24839,7 +24839,7 @@
         <v>5141136</v>
       </c>
       <c r="H943" t="str">
-        <v>未暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="944">
@@ -25983,7 +25983,7 @@
         <v>45912418</v>
       </c>
       <c r="H987" t="str">
-        <v>未暂存</v>
+        <v>已暂存</v>
       </c>
     </row>
     <row r="988">
